--- a/append_lab/GoogleTransExcel-OK.xlsx
+++ b/append_lab/GoogleTransExcel-OK.xlsx
@@ -21,16 +21,19 @@
     <t>オリジナル</t>
   </si>
   <si>
+    <t>翻訳テキスト</t>
+  </si>
+  <si>
     <t>Hello Python World.</t>
   </si>
   <si>
     <t>こんにちはPython World。</t>
   </si>
   <si>
-    <t>The “What’s New in Python” series of essays takes tours through the most important changes between major Python versions. They are a “must read” for anyone wishing to stay up-to-date after a new release.</t>
-  </si>
-  <si>
-    <t>「What\x26#39;s New in Python」エッセイシリーズは、主要なPythonバージョン間の最も重要な変更点を紹介します。彼らは、新しいリリース後に最新の状態を維持したいと思っている人にとって、「必読」である。</t>
+    <t>The "What's New in Python" series of essays takes tours through the most important changes between major Python versions. They are a "must read" for anyone wishing to stay up-to-date after a new release.</t>
+  </si>
+  <si>
+    <t>「What\x26#39;s New in Python」エッセイシリーズは、主要なPythonバージョン間の最も重要な変更点を紹介します。彼らは、新しいリリースの後に最新の状態を維持したいと思っている人にとっては、「読んでおく必要があります」。</t>
   </si>
   <si>
     <t>This article explains the new features in Python 3.6, compared to 3.5. Python 3.6 was released on December 23, 2016. For full details, see the changelog.</t>
@@ -39,76 +42,73 @@
     <t>この記事では、3.5と比較して、Python 3.6の新機能について説明します。 Python 3.6は2016年12月23日にリリースされました。詳細は、changelogを参照してください。</t>
   </si>
   <si>
+    <t>PEP 498, formatted string literals.</t>
+  </si>
+  <si>
+    <t>PEP 498、フォーマットされた文字列リテラル。</t>
+  </si>
+  <si>
+    <t>PEP 515, underscores in numeric literals.</t>
+  </si>
+  <si>
+    <t>PEP 515は、数値リテラルの下にあります。</t>
+  </si>
+  <si>
+    <t>PEP 526, syntax for variable annotations.</t>
+  </si>
+  <si>
+    <t>PEP 526、変数注釈の構文。</t>
+  </si>
+  <si>
+    <t>PEP 525, asynchronous generators.</t>
+  </si>
+  <si>
+    <t>PEP 525、非同期ジェネレータ。</t>
+  </si>
+  <si>
+    <t>PEP 530: asynchronous comprehensions.</t>
+  </si>
+  <si>
+    <t>PEP 530：非同期的な理解。</t>
+  </si>
+  <si>
+    <t>The dict type has been reimplemented to use a more compact representation based on a proposal by Raymond Hettinger and similar to the PyPy dict implementation. This resulted in dictionaries using 20% to 25% less memory when compared to Python 3.5.</t>
+  </si>
+  <si>
+    <t>dict型は、Raymond Hettingerの提案に基づくよりコンパクトな表現を使用するために再実装され、PyPy dict実装と同様に再実装されました。これにより、Python 3.5と比較して辞書の使用量が20&amp;#12316;25％少なくなりました。</t>
+  </si>
+  <si>
+    <t>Customization of class creation has been simplified with the new protocol.</t>
+  </si>
+  <si>
+    <t>新しいプロトコルにより、クラス作成のカスタマイズが簡単になりました。</t>
+  </si>
+  <si>
+    <t>The class attribute definition order is now preserved.</t>
+  </si>
+  <si>
+    <t>クラス属性定義の順序が保持されるようになりました。</t>
+  </si>
+  <si>
+    <t>The order of elements in **kwargs now corresponds to the order in which keyword arguments were passed to the function.</t>
+  </si>
+  <si>
+    <t>** kwargsの要素の順序は、キーワード引数が関数に渡された順序に対応するようになりました。</t>
+  </si>
+  <si>
+    <t>DTrace and SystemTap probing support has been added.</t>
+  </si>
+  <si>
+    <t>DTraceとSystemTapのプロービングサポートが追加されました。</t>
+  </si>
+  <si>
+    <t>The new PYTHONMALLOC environment variable can now be used to debug the interpreter memory allocation and access errors.</t>
+  </si>
+  <si>
+    <t>新しいPYTHONMALLOC環境変数を使用して、インタプリタのメモリ割り当てとアクセスエラーをデバッグできるようになりました。</t>
+  </si>
+  <si>
     <t>New syntax features:</t>
-  </si>
-  <si>
-    <t>新しい構文機能：</t>
-  </si>
-  <si>
-    <t>PEP 498, formatted string literals.</t>
-  </si>
-  <si>
-    <t>PEP 498、フォーマットされた文字列リテラル。</t>
-  </si>
-  <si>
-    <t>PEP 515, underscores in numeric literals.</t>
-  </si>
-  <si>
-    <t>PEP 515は、数値リテラルの下にあります。</t>
-  </si>
-  <si>
-    <t>PEP 526, syntax for variable annotations.</t>
-  </si>
-  <si>
-    <t>PEP 526、変数注釈の構文。</t>
-  </si>
-  <si>
-    <t>PEP 525, asynchronous generators.</t>
-  </si>
-  <si>
-    <t>PEP 525、非同期ジェネレータ。</t>
-  </si>
-  <si>
-    <t>PEP 530: asynchronous comprehensions.</t>
-  </si>
-  <si>
-    <t>PEP 530：非同期的な理解。</t>
-  </si>
-  <si>
-    <t>The dict type has been reimplemented to use a more compact representation based on a proposal by Raymond Hettinger and similar to the PyPy dict implementation. This resulted in dictionaries using 20% to 25% less memory when compared to Python 3.5.</t>
-  </si>
-  <si>
-    <t>dict型は、Raymond Hettingerの提案に基づくよりコンパクトな表現を使用するために再実装され、PyPy dict実装と同様に再実装されました。これにより、Python 3.5と比較して辞書の使用量が20&amp;#12316;25％少なくなりました。</t>
-  </si>
-  <si>
-    <t>Customization of class creation has been simplified with the new protocol.</t>
-  </si>
-  <si>
-    <t>新しいプロトコルにより、クラス作成のカスタマイズが簡単になりました。</t>
-  </si>
-  <si>
-    <t>The class attribute definition order is now preserved.</t>
-  </si>
-  <si>
-    <t>クラス属性定義の順序が保持されるようになりました。</t>
-  </si>
-  <si>
-    <t>The order of elements in **kwargs now corresponds to the order in which keyword arguments were passed to the function.</t>
-  </si>
-  <si>
-    <t>** kwargsの要素の順序は、キーワード引数が関数に渡された順序に対応するようになりました。</t>
-  </si>
-  <si>
-    <t>DTrace and SystemTap probing support has been added.</t>
-  </si>
-  <si>
-    <t>DTraceとSystemTapのプロービングサポートが追加されました。</t>
-  </si>
-  <si>
-    <t>The new PYTHONMALLOC environment variable can now be used to debug the interpreter memory allocation and access errors.</t>
-  </si>
-  <si>
-    <t>新しいPYTHONMALLOC環境変数を使用して、インタプリタのメモリ割り当てとアクセスエラーをデバッグできるようになりました。</t>
   </si>
 </sst>
 </file>
@@ -489,10 +489,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -500,149 +500,152 @@
     <col customWidth="1" max="2" min="1" style="4" width="52.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.25" r="3" s="4" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3" s="4" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="n"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="n"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
+    </row>
+    <row r="21" spans="1:4"/>
+    <row r="22" spans="1:4"/>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
